--- a/study01/report/motivation/scr-signedup-participants/pressure-tension/by-Type/ParametricAnalysis.xlsx
+++ b/study01/report/motivation/scr-signedup-participants/pressure-tension/by-Type/ParametricAnalysis.xlsx
@@ -8906,13 +8906,13 @@
         <v>0.286796920974038</v>
       </c>
       <c r="E6" t="n" s="34">
-        <v>3.7358657125060013</v>
+        <v>3.735865712506</v>
       </c>
       <c r="F6" t="n" s="35">
         <v>0.06253974338441501</v>
       </c>
       <c r="G6" t="n" s="36">
-        <v>0.05831886079090043</v>
+        <v>0.05831886079090045</v>
       </c>
     </row>
     <row r="7">
@@ -8929,13 +8929,13 @@
         <v>0.286796920974038</v>
       </c>
       <c r="E7" t="n" s="34">
-        <v>0.0020246029823419343</v>
+        <v>0.002024602982337621</v>
       </c>
       <c r="F7" t="n" s="35">
         <v>3.6152317647276675E-5</v>
       </c>
       <c r="G7" t="n" s="36">
-        <v>0.9642708943337576</v>
+        <v>0.9642708943337956</v>
       </c>
     </row>
     <row r="8">
@@ -8952,7 +8952,7 @@
         <v>0.286796920974038</v>
       </c>
       <c r="E8" t="n" s="34">
-        <v>3.820541139597783</v>
+        <v>3.8205411395977826</v>
       </c>
       <c r="F8" t="n" s="35">
         <v>0.06386670977586331</v>
@@ -9019,10 +9019,10 @@
         <v>1.0</v>
       </c>
       <c r="D14" t="n" s="57">
-        <v>3.7358657125060013</v>
+        <v>3.735865712506</v>
       </c>
       <c r="E14" t="n" s="58">
-        <v>0.05831886079090043</v>
+        <v>0.05831886079090045</v>
       </c>
     </row>
     <row r="15">
@@ -9036,10 +9036,10 @@
         <v>1.0</v>
       </c>
       <c r="D15" t="n" s="57">
-        <v>0.0020246029823419343</v>
+        <v>0.002024602982337621</v>
       </c>
       <c r="E15" t="n" s="58">
-        <v>0.9642708943337576</v>
+        <v>0.9642708943337956</v>
       </c>
     </row>
     <row r="16">
@@ -9053,7 +9053,7 @@
         <v>1.0</v>
       </c>
       <c r="D16" t="n" s="57">
-        <v>3.820541139597783</v>
+        <v>3.8205411395977826</v>
       </c>
       <c r="E16" t="n" s="58">
         <v>0.05562715805828177</v>
